--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>967617.5076330774</v>
+        <v>983502.4127506085</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484435</v>
+        <v>278692.0725916854</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7265887.493925011</v>
+        <v>7381071.178972603</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>424.2958575201043</v>
@@ -665,7 +665,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>373.0257154113235</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -725,7 +725,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>20.54390803567486</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.355512532834</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>174.2596325828021</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>322.9639268876603</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>74.30959039123344</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>173.5591556145158</v>
+        <v>37.05561779641547</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>248.2979378436725</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>315.296475951333</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1199,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>170.6306905111304</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1379,7 +1379,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>229.7552611298644</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>152.5004364948334</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>136.604751207855</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>24.62703520776627</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>107.8437233964064</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2011,7 +2011,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225774</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>18.05677735226066</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,10 +2296,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>187.5234134555185</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2488,10 +2488,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>94.21878984361707</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>185.622538481805</v>
       </c>
     </row>
     <row r="26">
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,10 +2770,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>187.5234134555187</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2962,10 +2962,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>43.48898701015872</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3196,13 +3196,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,7 +3247,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>166.1507936381775</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3512,7 +3512,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>69.45405731752896</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3673,10 +3673,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>24.34318456170539</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3724,7 +3724,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199181</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3752,13 +3752,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>128.6631732150123</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3910,13 +3910,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>18.05677735225727</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>199.1362892344166</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3989,7 +3989,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>129.3727203283476</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225747</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1292.14448398095</v>
+        <v>1234.215327408404</v>
       </c>
       <c r="C2" t="n">
-        <v>863.562809718218</v>
+        <v>805.6336531456727</v>
       </c>
       <c r="D2" t="n">
-        <v>434.9811354554863</v>
+        <v>377.0519788829411</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4364,16 +4364,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1318.649370085396</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>1314.403650425453</v>
+        <v>1660.514897893312</v>
       </c>
     </row>
     <row r="3">
@@ -4413,16 +4413,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>630.7799396378264</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>630.7799396378264</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4519,19 +4519,19 @@
         <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1094.624962770522</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1094.624962770522</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>822.5985583568136</v>
       </c>
       <c r="X4" t="n">
-        <v>187.8381257054811</v>
+        <v>822.5985583568136</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.8381257054811</v>
+        <v>822.5985583568136</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>978.4627999561583</v>
       </c>
       <c r="C5" t="n">
-        <v>812.5785571901426</v>
+        <v>540.3203271395815</v>
       </c>
       <c r="D5" t="n">
-        <v>383.996882927411</v>
+        <v>104.410542314026</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>74.67620151272524</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>267.8706684926505</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.397026790869</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1899.780076724695</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1494.924622135729</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1075.782158715039</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>1000.721966400662</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>783.0254894138519</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>610.4637778970769</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1143.991608255752</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1586.250411413396</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2005.919660639178</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="W7" t="n">
-        <v>454.6477016666967</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>209.2559470001092</v>
+        <v>1012.274025098915</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.94366860160834</v>
+        <v>974.844108132839</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>442.640221925911</v>
+        <v>389.6379614873604</v>
       </c>
       <c r="C8" t="n">
-        <v>408.5381531497383</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>376.6687723645869</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.9397924108188</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>761.43086230084</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1516.524240083786</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1238.091239336891</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>951.1357312073217</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>679.1093267936133</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>433.7175721270257</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>206.297901441134</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>386.282920610759</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>97.1527660539752</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>96.7359766811152</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>96.7359766811152</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>96.7359766811152</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1186.92545850396</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940407</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510714</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302704</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.79883405576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.79883405576</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928799</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245816</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.892354179642</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590676</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247378</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077852</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580459</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552876</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>96.7359766811152</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>96.7359766811152</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119685</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.84397037279</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829512</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477033</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>96.7359766811152</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1366.340956092211</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1366.340956092211</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2492.071939528658</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3472.251606098964</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4300.561480932361</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.79883405576</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.79883405576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239597</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112636</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429653</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363479</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774513</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353823</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077852</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077852</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077852</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077852</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077852</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077852</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.229814098727</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C16" t="n">
-        <v>633.668102581952</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7923094427941</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935314</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552876</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G16" t="n">
-        <v>96.7359766811152</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H16" t="n">
-        <v>96.7359766811152</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I16" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177142</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.02545518136</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.882982364784</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1470.973197539228</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1037.198452697523</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>609.3310231067312</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>207.9331917299951</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423105</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137106</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523505</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315496</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252389</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125428</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442445</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376271</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787304</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366615</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666268</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137106</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K18" t="n">
-        <v>805.380541652206</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="L18" t="n">
-        <v>805.380541652206</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>805.380541652206</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>805.380541652206</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>805.380541652206</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.0793854983021</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>776.5176739815273</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>610.63968118305</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>440.8816774337872</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>264.1746233955434</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>98.58334842137106</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137106</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137106</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571965</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.003789281486</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.124342859941</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2172.691342113047</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1885.735833983477</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.709429569769</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.317674903181</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1140.898004217289</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5759,22 +5759,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5911,49 +5911,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066082</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745692</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2035.366634303136</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903953</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736205</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751432</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258805</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>286.0912842876367</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
         <v>190.9207894961043</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.60800300514</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461862</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109383</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6224,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4440.279291740943</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2035.366634303136</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903951</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736201</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751428</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>462.79833832588</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>286.0912842876361</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6774,10 +6774,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K33" t="n">
         <v>1107.588885023173</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>915.9519976190925</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>743.3902861023174</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>577.5122933038401</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>407.7542895545774</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1580.582041690559</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1335.190287023971</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1107.77061633808</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7017,22 +7017,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477103</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7096,22 +7096,22 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066045</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745656</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
         <v>2718.920450173579</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130894</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.801834709349</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
         <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
         <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.995166752589</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066697</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
         <v>793.2056155771595</v>
@@ -7172,52 +7172,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883925</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716174</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731401</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238774</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>126.8499155856335</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050032</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303137</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759859</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093271</v>
+        <v>1390.234335795278</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.57329640738</v>
+        <v>1162.814665109386</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.635886538672</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722096</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896541</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640435</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873075</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305238</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305238</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834417</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2665.68509916389</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.864765734196</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4474.174640567592</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.673426526188</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526188</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710024</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.058751482739</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4547.836448799756</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.219498733582</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.364044144616</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.221580723927</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2952.93545702358</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050121</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319658</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481274</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143113</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305238</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909814</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>969.1486746501391</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C43" t="n">
-        <v>796.5869631333641</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D43" t="n">
-        <v>630.7089703348868</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E43" t="n">
-        <v>460.950966585624</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F43" t="n">
-        <v>284.2439125473802</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G43" t="n">
-        <v>118.6526375732079</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>118.6526375732079</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305238</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663492</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343103</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2471.193632011778</v>
+        <v>2517.772683270128</v>
       </c>
       <c r="U43" t="n">
-        <v>2192.760631264883</v>
+        <v>2239.339682523233</v>
       </c>
       <c r="V43" t="n">
-        <v>1905.805123135314</v>
+        <v>1952.384174393664</v>
       </c>
       <c r="W43" t="n">
-        <v>1633.778718721606</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X43" t="n">
-        <v>1388.386964055018</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y43" t="n">
-        <v>1160.967293369126</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2252.656868168568</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1814.514395351991</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1378.604610526435</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>944.8298656847305</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>516.9624360939383</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397518</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1366.340956092211</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1366.340956092211</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2312.656441940406</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3292.836108510713</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344109</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302703</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112635</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429652</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363478</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.385025774512</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>947.2320137580464</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>774.6703022412713</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>608.792309442794</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>439.0343056935313</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>262.3272516552875</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849019</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.69591774924</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719582</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583914</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583914</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2695.15641754123</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2449.276971119686</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2170.843970372791</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1883.888462243221</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1611.862057829513</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1366.470303162925</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1139.050632477034</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8061,7 +8061,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8146,16 +8146,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,13 +8380,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>317.1830304671599</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,16 +8614,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.201496790753</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8945,10 +8945,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>541.6538920438388</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,13 +9170,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>951.4711125638169</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9246,7 +9246,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>301.5463146682409</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>301.5463146682413</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>508.6956131767483</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9954,22 +9954,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>222.8350353226374</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,13 +11300,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>185.195777656618</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>90.92021546249589</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>267.5985112554881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>178.3951296148095</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729421176</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>81.78272691405292</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>69.71657238081353</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>39.52293549722782</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>81.78272691405269</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>120.4463752142719</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>103.1553467313939</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>120.4463752142683</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>89.20338164067948</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>69.71657238081414</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>157.6489550149795</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>44.28436272291265</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>598608.1756504781</v>
+        <v>615517.9388815118</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>598608.1756504781</v>
+        <v>618562.5789427459</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>621319.611576805</v>
+        <v>647540.0091784664</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>621319.611576805</v>
+        <v>647540.0091784664</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>630087.0355613894</v>
+        <v>647540.0091784664</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>647540.0091784664</v>
+        <v>647540.0091784666</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>647540.0091784663</v>
+        <v>647540.0091784664</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>647540.0091784663</v>
+        <v>647540.0091784664</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>638772.585193882</v>
+        <v>647540.0091784664</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>621319.6115768048</v>
+        <v>647540.0091784664</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.806920546</v>
+        <v>388706.8069205461</v>
       </c>
       <c r="C2" t="n">
-        <v>388706.806920546</v>
+        <v>388706.8069205461</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.806920546</v>
+        <v>388706.8069205461</v>
       </c>
       <c r="E2" t="n">
-        <v>366504.8260294655</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="F2" t="n">
-        <v>366504.8260294656</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="G2" t="n">
-        <v>371676.5655695097</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="H2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="I2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="J2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="K2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="L2" t="n">
         <v>381971.7484995804</v>
@@ -26350,10 +26350,10 @@
         <v>381971.7484995804</v>
       </c>
       <c r="O2" t="n">
-        <v>376800.0089595361</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="P2" t="n">
-        <v>366504.8260294654</v>
+        <v>381971.7484995804</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220375</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850345</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996342</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830678</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,19 +26418,19 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>187964.499790937</v>
       </c>
       <c r="D4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>103931.2982770052</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="F4" t="n">
-        <v>103931.2982770053</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="G4" t="n">
-        <v>105397.8699742197</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="H4" t="n">
         <v>108317.3178284629</v>
@@ -26454,10 +26454,10 @@
         <v>108317.3178284629</v>
       </c>
       <c r="O4" t="n">
-        <v>106850.7461312484</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="P4" t="n">
-        <v>103931.2982770052</v>
+        <v>108317.3178284629</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764755</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764755</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024199</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319805</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31134.54790895531</v>
+        <v>-31134.54790895528</v>
       </c>
       <c r="C6" t="n">
-        <v>111056.7527507546</v>
+        <v>62198.32542659059</v>
       </c>
       <c r="D6" t="n">
-        <v>111056.7527507545</v>
+        <v>120450.7045354777</v>
       </c>
       <c r="E6" t="n">
-        <v>-45300.83654722481</v>
+        <v>13557.85850489254</v>
       </c>
       <c r="F6" t="n">
-        <v>189054.1854748128</v>
+        <v>195912.9677259423</v>
       </c>
       <c r="G6" t="n">
-        <v>185026.1397521977</v>
+        <v>195912.9677259423</v>
       </c>
       <c r="H6" t="n">
-        <v>183533.4370853615</v>
+        <v>195912.9677259423</v>
       </c>
       <c r="I6" t="n">
-        <v>195936.1920653249</v>
+        <v>195912.9677259423</v>
       </c>
       <c r="J6" t="n">
-        <v>84921.7267203347</v>
+        <v>84898.50238095215</v>
       </c>
       <c r="K6" t="n">
-        <v>195936.192065325</v>
+        <v>142867.1130871699</v>
       </c>
       <c r="L6" t="n">
-        <v>195936.192065325</v>
+        <v>186520.6659993199</v>
       </c>
       <c r="M6" t="n">
-        <v>335.0127822571667</v>
+        <v>43712.79678795468</v>
       </c>
       <c r="N6" t="n">
-        <v>195936.1920653249</v>
+        <v>195912.9677259423</v>
       </c>
       <c r="O6" t="n">
-        <v>193635.0267450896</v>
+        <v>195912.9677259425</v>
       </c>
       <c r="P6" t="n">
-        <v>189054.1854748126</v>
+        <v>195912.9677259423</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267138</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631547</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938357</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319826</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760697</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938357</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319826</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760697</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>9.465190568306582</v>
@@ -27385,7 +27385,7 @@
         <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>56.41128198196429</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>383.6593544276682</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.54491999896322</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>101.3890381566237</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27616,13 +27616,13 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E5" t="n">
-        <v>106.4730705056275</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>329.8936720721097</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -27786,13 +27786,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.58631836451698</v>
+        <v>188.0898561826173</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>185.4631102447384</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>114.1405214419547</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.26974202066685</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-2.779647469158316e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-3.916515846374476e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30444,7 +30444,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30666,7 +30666,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -34699,10 +34699,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,7 +34714,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34781,7 +34781,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,7 +34793,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34866,16 +34866,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35100,13 +35100,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>317.1830304671599</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.201496790753</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,16 +35647,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35665,10 +35665,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>541.6538920438388</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35884,19 +35884,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>951.4711125638169</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35966,7 +35966,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>301.5463146682409</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>301.5463146682413</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960997</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>508.6956131767483</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36674,22 +36674,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.533792496096</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37482,7 +37482,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>222.8350353226374</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37941,10 +37941,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38017,16 +38017,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512938</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
